--- a/data/pca/factorExposure/factorExposure_2017-08-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02386281184474958</v>
+        <v>-0.01013179044986063</v>
       </c>
       <c r="C2">
-        <v>-0.0006782534390855581</v>
+        <v>-0.0434779144910954</v>
       </c>
       <c r="D2">
-        <v>-0.01692747975977625</v>
+        <v>0.02978261063582939</v>
       </c>
       <c r="E2">
-        <v>0.01096145481554468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03346305360400505</v>
+      </c>
+      <c r="F2">
+        <v>-0.01178785401498674</v>
+      </c>
+      <c r="G2">
+        <v>-0.07236497050099809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01588312679402483</v>
+        <v>-0.05908474469625009</v>
       </c>
       <c r="C3">
-        <v>-0.05184149588000713</v>
+        <v>-0.06989808342424832</v>
       </c>
       <c r="D3">
-        <v>0.003414414032942523</v>
+        <v>0.01481046364523443</v>
       </c>
       <c r="E3">
-        <v>-0.01347473002059713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1024347762859633</v>
+      </c>
+      <c r="F3">
+        <v>-0.03621262773370518</v>
+      </c>
+      <c r="G3">
+        <v>-0.1597097687406237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02367943752212361</v>
+        <v>-0.06094522330233706</v>
       </c>
       <c r="C4">
-        <v>-0.02031972582900697</v>
+        <v>-0.06312995171657475</v>
       </c>
       <c r="D4">
-        <v>-0.06334466601480529</v>
+        <v>0.02339475220596162</v>
       </c>
       <c r="E4">
-        <v>-0.01140317285288081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02198548750725579</v>
+      </c>
+      <c r="F4">
+        <v>-0.007423843420700334</v>
+      </c>
+      <c r="G4">
+        <v>-0.07306488133568739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01524725892492025</v>
+        <v>-0.04148507576347426</v>
       </c>
       <c r="C6">
-        <v>-0.01030468895607272</v>
+        <v>-0.0523768029679739</v>
       </c>
       <c r="D6">
-        <v>-0.08820760331421974</v>
+        <v>0.01584743042892206</v>
       </c>
       <c r="E6">
-        <v>-0.003641027150712662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02055502913664974</v>
+      </c>
+      <c r="F6">
+        <v>-0.01199217753659572</v>
+      </c>
+      <c r="G6">
+        <v>-0.0492976781467901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01060002764301121</v>
+        <v>-0.0198959382826399</v>
       </c>
       <c r="C7">
-        <v>-0.006504321418028456</v>
+        <v>-0.04014864672100773</v>
       </c>
       <c r="D7">
-        <v>-0.03728736324505361</v>
+        <v>0.01329838648679244</v>
       </c>
       <c r="E7">
-        <v>-0.06027362515780965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005604241693647175</v>
+      </c>
+      <c r="F7">
+        <v>0.003128772036977274</v>
+      </c>
+      <c r="G7">
+        <v>-0.113322013322788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.250148007873471e-05</v>
+        <v>-0.001956813706767585</v>
       </c>
       <c r="C8">
-        <v>-0.0008898461387398583</v>
+        <v>-0.02102492811776678</v>
       </c>
       <c r="D8">
-        <v>-0.001437347413096348</v>
+        <v>0.003653134084839116</v>
       </c>
       <c r="E8">
-        <v>-0.01077807752255036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02296734022176738</v>
+      </c>
+      <c r="F8">
+        <v>-0.01700751659265473</v>
+      </c>
+      <c r="G8">
+        <v>-0.04636733999934851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01637377567058631</v>
+        <v>-0.03618041532085688</v>
       </c>
       <c r="C9">
-        <v>-0.0208410450082441</v>
+        <v>-0.0437268253762312</v>
       </c>
       <c r="D9">
-        <v>-0.04638591582480907</v>
+        <v>0.01591830135882086</v>
       </c>
       <c r="E9">
-        <v>-0.003415043827606734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01503129463094924</v>
+      </c>
+      <c r="F9">
+        <v>-0.01197235541790985</v>
+      </c>
+      <c r="G9">
+        <v>-0.07756619162090896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02019542809154385</v>
+        <v>-0.09011475448384502</v>
       </c>
       <c r="C10">
-        <v>-0.1639521817067466</v>
+        <v>0.1861907522477178</v>
       </c>
       <c r="D10">
-        <v>0.11230641259292</v>
+        <v>-0.01696251079444585</v>
       </c>
       <c r="E10">
-        <v>-0.003615224538482475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0123091555234795</v>
+      </c>
+      <c r="F10">
+        <v>0.02014062188102595</v>
+      </c>
+      <c r="G10">
+        <v>-0.05103189931459912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007609564845172179</v>
+        <v>-0.03562598745654501</v>
       </c>
       <c r="C11">
-        <v>-0.00719262561614175</v>
+        <v>-0.05269532037973981</v>
       </c>
       <c r="D11">
-        <v>-0.03941543547581551</v>
+        <v>0.002370778785141498</v>
       </c>
       <c r="E11">
-        <v>0.005846362322016575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008409933875878397</v>
+      </c>
+      <c r="F11">
+        <v>-0.02162711983711255</v>
+      </c>
+      <c r="G11">
+        <v>-0.05964622605396765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006327186489359575</v>
+        <v>-0.03719159250411808</v>
       </c>
       <c r="C12">
-        <v>-0.01315632507505964</v>
+        <v>-0.04785535308297741</v>
       </c>
       <c r="D12">
-        <v>-0.0432691316009504</v>
+        <v>0.006197371766938901</v>
       </c>
       <c r="E12">
-        <v>-0.004239286801583902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0009902974401368092</v>
+      </c>
+      <c r="F12">
+        <v>-0.002205484815974244</v>
+      </c>
+      <c r="G12">
+        <v>-0.0550491365711368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02271160652818135</v>
+        <v>-0.01865967918026313</v>
       </c>
       <c r="C13">
-        <v>-0.0158064545322222</v>
+        <v>-0.03516424247224087</v>
       </c>
       <c r="D13">
-        <v>-0.007097389362674192</v>
+        <v>0.02541954652438282</v>
       </c>
       <c r="E13">
-        <v>0.006909987327834002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02694837461306011</v>
+      </c>
+      <c r="F13">
+        <v>-0.007134262032553613</v>
+      </c>
+      <c r="G13">
+        <v>-0.09016044754119955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007936385963135667</v>
+        <v>-0.01041597571870205</v>
       </c>
       <c r="C14">
-        <v>-0.01465279246709398</v>
+        <v>-0.02594563954302836</v>
       </c>
       <c r="D14">
-        <v>-0.01101293424835327</v>
+        <v>0.008681412291470073</v>
       </c>
       <c r="E14">
-        <v>-0.01293191839139089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00323660886123504</v>
+      </c>
+      <c r="F14">
+        <v>0.006721523509385327</v>
+      </c>
+      <c r="G14">
+        <v>-0.07758856656503663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001605402516326517</v>
+        <v>-0.03465824067232974</v>
       </c>
       <c r="C16">
-        <v>-0.01316036814679035</v>
+        <v>-0.04705488302461278</v>
       </c>
       <c r="D16">
-        <v>-0.04613509569379371</v>
+        <v>0.001890844871563764</v>
       </c>
       <c r="E16">
-        <v>-0.003248708355192911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007202161253237288</v>
+      </c>
+      <c r="F16">
+        <v>-0.00299421699562441</v>
+      </c>
+      <c r="G16">
+        <v>-0.06346578241028701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01433894543831116</v>
+        <v>-0.02739551091565443</v>
       </c>
       <c r="C19">
-        <v>-0.02409487481780609</v>
+        <v>-0.0490531191750877</v>
       </c>
       <c r="D19">
-        <v>-0.01665763719788063</v>
+        <v>0.01690570444564813</v>
       </c>
       <c r="E19">
-        <v>-0.01151209741290018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05905502746477904</v>
+      </c>
+      <c r="F19">
+        <v>-0.0200166726452325</v>
+      </c>
+      <c r="G19">
+        <v>-0.1019242117189872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01115443731873947</v>
+        <v>-0.01660902155730834</v>
       </c>
       <c r="C20">
-        <v>-0.009402576448864561</v>
+        <v>-0.03442311356837537</v>
       </c>
       <c r="D20">
-        <v>-0.00738459485929273</v>
+        <v>0.01338295979941281</v>
       </c>
       <c r="E20">
-        <v>0.001667621256563854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02723730512795533</v>
+      </c>
+      <c r="F20">
+        <v>0.004548981345220266</v>
+      </c>
+      <c r="G20">
+        <v>-0.07973609115213987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01500914415521514</v>
+        <v>-0.01664626818153405</v>
       </c>
       <c r="C21">
-        <v>-0.02318694473952516</v>
+        <v>-0.03683795187100089</v>
       </c>
       <c r="D21">
-        <v>-0.02291671221896804</v>
+        <v>0.01714376922434599</v>
       </c>
       <c r="E21">
-        <v>-0.01364899214409081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03698260949533184</v>
+      </c>
+      <c r="F21">
+        <v>0.0002011947877284428</v>
+      </c>
+      <c r="G21">
+        <v>-0.1077599856723897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004543162519793001</v>
+        <v>-0.02822650748531922</v>
       </c>
       <c r="C24">
-        <v>-0.001741159794227916</v>
+        <v>-0.05026535784661319</v>
       </c>
       <c r="D24">
-        <v>-0.04152440587930609</v>
+        <v>0.007382215655802716</v>
       </c>
       <c r="E24">
-        <v>0.000766226412346501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004850945642538647</v>
+      </c>
+      <c r="F24">
+        <v>-0.01505428000345259</v>
+      </c>
+      <c r="G24">
+        <v>-0.06364430146319248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01216007495355724</v>
+        <v>-0.04357179903930004</v>
       </c>
       <c r="C25">
-        <v>-0.01792110199312171</v>
+        <v>-0.05667623079496156</v>
       </c>
       <c r="D25">
-        <v>-0.04358836342409372</v>
+        <v>0.01131991954104175</v>
       </c>
       <c r="E25">
-        <v>0.0006234819715356832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002725850279613889</v>
+      </c>
+      <c r="F25">
+        <v>-0.01010019484308369</v>
+      </c>
+      <c r="G25">
+        <v>-0.06834660767340221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02313274676539794</v>
+        <v>-0.01588810876085413</v>
       </c>
       <c r="C26">
-        <v>-0.01092106936033831</v>
+        <v>-0.007684239253297719</v>
       </c>
       <c r="D26">
-        <v>0.008274300829047398</v>
+        <v>0.02325762905421489</v>
       </c>
       <c r="E26">
-        <v>-0.01233663383231019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002680864262862619</v>
+      </c>
+      <c r="F26">
+        <v>0.007446936983801062</v>
+      </c>
+      <c r="G26">
+        <v>-0.06475355517155505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04263477711051283</v>
+        <v>-0.1130234448877175</v>
       </c>
       <c r="C28">
-        <v>-0.2354504091715776</v>
+        <v>0.2367926958956344</v>
       </c>
       <c r="D28">
-        <v>0.1628652664924118</v>
+        <v>-0.00771745585895167</v>
       </c>
       <c r="E28">
-        <v>-0.02457850672568623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0009413551088376603</v>
+      </c>
+      <c r="F28">
+        <v>0.02010320930650908</v>
+      </c>
+      <c r="G28">
+        <v>-0.06828649945026938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008260667249443694</v>
+        <v>-0.01269530836366033</v>
       </c>
       <c r="C29">
-        <v>-0.01827254398275584</v>
+        <v>-0.02048327855816467</v>
       </c>
       <c r="D29">
-        <v>-0.009967977233520999</v>
+        <v>0.007433080429063787</v>
       </c>
       <c r="E29">
-        <v>-0.007649378645763347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.005929542788483266</v>
+      </c>
+      <c r="F29">
+        <v>0.01657718004603091</v>
+      </c>
+      <c r="G29">
+        <v>-0.06766679291826042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02362465445382202</v>
+        <v>-0.04821289692268212</v>
       </c>
       <c r="C30">
-        <v>-0.005294183024651383</v>
+        <v>-0.06298698984549356</v>
       </c>
       <c r="D30">
-        <v>-0.05648396911294802</v>
+        <v>0.02776932390112394</v>
       </c>
       <c r="E30">
-        <v>0.05127746276698834</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04624659429319494</v>
+      </c>
+      <c r="F30">
+        <v>-0.04730047086438933</v>
+      </c>
+      <c r="G30">
+        <v>-0.07074934270747743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009796437277017619</v>
+        <v>-0.05418888812193992</v>
       </c>
       <c r="C31">
-        <v>-0.04288756841956571</v>
+        <v>-0.03369093471818442</v>
       </c>
       <c r="D31">
-        <v>-0.04129168296358563</v>
+        <v>0.00312972059965103</v>
       </c>
       <c r="E31">
-        <v>-0.01031564684233945</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006265685618861422</v>
+      </c>
+      <c r="F31">
+        <v>0.03846571359155496</v>
+      </c>
+      <c r="G31">
+        <v>-0.06480172566969092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006037074379203689</v>
+        <v>-0.0004442235845910375</v>
       </c>
       <c r="C32">
-        <v>-0.01904814185246765</v>
+        <v>-0.02796165113866899</v>
       </c>
       <c r="D32">
-        <v>0.005725269219406275</v>
+        <v>-0.004056258172992682</v>
       </c>
       <c r="E32">
-        <v>-0.0490329237767991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01507124472461689</v>
+      </c>
+      <c r="F32">
+        <v>-0.0424814358028014</v>
+      </c>
+      <c r="G32">
+        <v>-0.08994842080466299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01387902746368538</v>
+        <v>-0.03002162212631895</v>
       </c>
       <c r="C33">
-        <v>-0.02660078130128463</v>
+        <v>-0.04721236549296651</v>
       </c>
       <c r="D33">
-        <v>-0.01735360972518179</v>
+        <v>0.01474868957695561</v>
       </c>
       <c r="E33">
-        <v>0.0260021070751454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0313129435361856</v>
+      </c>
+      <c r="F33">
+        <v>-0.01748326779070871</v>
+      </c>
+      <c r="G33">
+        <v>-0.09865757615124365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.00397332754142806</v>
+        <v>-0.04099280589262051</v>
       </c>
       <c r="C34">
-        <v>-0.01884863457879674</v>
+        <v>-0.06066910839573972</v>
       </c>
       <c r="D34">
-        <v>-0.04760627919381642</v>
+        <v>-0.004359561783131819</v>
       </c>
       <c r="E34">
-        <v>-0.008035560874104649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001482787592931059</v>
+      </c>
+      <c r="F34">
+        <v>-0.02123264257277106</v>
+      </c>
+      <c r="G34">
+        <v>-0.07092303563137611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01322634656388621</v>
+        <v>-0.01628451536429752</v>
       </c>
       <c r="C36">
-        <v>-0.02230441808822987</v>
+        <v>-0.008885815850557085</v>
       </c>
       <c r="D36">
-        <v>-0.002053719353224453</v>
+        <v>0.01145813697164297</v>
       </c>
       <c r="E36">
-        <v>-0.004533379494984194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0007667637590730829</v>
+      </c>
+      <c r="F36">
+        <v>0.008937981910451313</v>
+      </c>
+      <c r="G36">
+        <v>-0.05771457835001911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00357985487901981</v>
+        <v>-0.03371941249262507</v>
       </c>
       <c r="C38">
-        <v>-0.03633926196437843</v>
+        <v>-0.02736870991404133</v>
       </c>
       <c r="D38">
-        <v>-0.03110095080300686</v>
+        <v>-0.007848983187509442</v>
       </c>
       <c r="E38">
-        <v>-0.005924272111877836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002857447540363396</v>
+      </c>
+      <c r="F38">
+        <v>0.01579559296040099</v>
+      </c>
+      <c r="G38">
+        <v>-0.06592471138168904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00508929905506482</v>
+        <v>-0.03641234297160915</v>
       </c>
       <c r="C39">
-        <v>0.01673551554892233</v>
+        <v>-0.08157266067576167</v>
       </c>
       <c r="D39">
-        <v>-0.08660424330666287</v>
+        <v>0.01208786335698674</v>
       </c>
       <c r="E39">
-        <v>0.01454079649656756</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02364464167203627</v>
+      </c>
+      <c r="F39">
+        <v>-0.02852429283339252</v>
+      </c>
+      <c r="G39">
+        <v>-0.06564398459708955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01301645795638586</v>
+        <v>-0.02059927549190338</v>
       </c>
       <c r="C40">
-        <v>-0.02400085732509591</v>
+        <v>-0.03274085183653352</v>
       </c>
       <c r="D40">
-        <v>-0.02681880412126834</v>
+        <v>0.01371091777283569</v>
       </c>
       <c r="E40">
-        <v>-0.002397842366264229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02220116629776726</v>
+      </c>
+      <c r="F40">
+        <v>-0.0120112744070841</v>
+      </c>
+      <c r="G40">
+        <v>-0.07114316426110208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006374681985761597</v>
+        <v>-0.01727449507461742</v>
       </c>
       <c r="C41">
-        <v>-0.02238646878463853</v>
+        <v>-0.004231205487688861</v>
       </c>
       <c r="D41">
-        <v>0.009295966814722063</v>
+        <v>0.003905914182794412</v>
       </c>
       <c r="E41">
-        <v>-0.004613422758841389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0005707794062741453</v>
+      </c>
+      <c r="F41">
+        <v>0.01050729751016979</v>
+      </c>
+      <c r="G41">
+        <v>-0.04399307574114517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09337994296781195</v>
+        <v>-0.01295198427728423</v>
       </c>
       <c r="C42">
-        <v>0.003215675756158136</v>
+        <v>-0.03739048365894888</v>
       </c>
       <c r="D42">
-        <v>-0.24095380967875</v>
+        <v>0.09404652721292291</v>
       </c>
       <c r="E42">
-        <v>0.4120610087497256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03213486449764717</v>
+      </c>
+      <c r="F42">
+        <v>0.03732614524997473</v>
+      </c>
+      <c r="G42">
+        <v>0.1755853873060347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007816486355783064</v>
+        <v>-0.03319796580944771</v>
       </c>
       <c r="C43">
-        <v>-0.0260969717601084</v>
+        <v>-0.01421504966143006</v>
       </c>
       <c r="D43">
-        <v>0.0147934160069827</v>
+        <v>0.005245674726415408</v>
       </c>
       <c r="E43">
-        <v>0.003102128439721487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01179443729322824</v>
+      </c>
+      <c r="F43">
+        <v>0.003426597788656705</v>
+      </c>
+      <c r="G43">
+        <v>-0.06714429355999496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003362353898566296</v>
+        <v>-0.01893007346147632</v>
       </c>
       <c r="C44">
-        <v>-0.007459285454007994</v>
+        <v>-0.04796842860481528</v>
       </c>
       <c r="D44">
-        <v>-0.02571269441838468</v>
+        <v>0.005806970761878714</v>
       </c>
       <c r="E44">
-        <v>-0.004399694062848036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01630027711847128</v>
+      </c>
+      <c r="F44">
+        <v>0.004233774068190782</v>
+      </c>
+      <c r="G44">
+        <v>-0.08205047155206496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01128348988205935</v>
+        <v>-0.009548113557356444</v>
       </c>
       <c r="C46">
-        <v>-0.01626707307320784</v>
+        <v>-0.01634878845226149</v>
       </c>
       <c r="D46">
-        <v>-0.009662791985914443</v>
+        <v>0.01139697306547447</v>
       </c>
       <c r="E46">
-        <v>-0.002043445296440325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00465216433281557</v>
+      </c>
+      <c r="F46">
+        <v>0.01847877388226915</v>
+      </c>
+      <c r="G46">
+        <v>-0.06712131519255703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004351559817980954</v>
+        <v>-0.07924379347117934</v>
       </c>
       <c r="C47">
-        <v>-0.05482343629287014</v>
+        <v>-0.0629340457774074</v>
       </c>
       <c r="D47">
-        <v>-0.05589344699434282</v>
+        <v>-0.005224273056109441</v>
       </c>
       <c r="E47">
-        <v>-0.005804976227188127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009264508358401596</v>
+      </c>
+      <c r="F47">
+        <v>0.05339142462760267</v>
+      </c>
+      <c r="G47">
+        <v>-0.06177610031832691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004222020789852545</v>
+        <v>-0.0224142015715342</v>
       </c>
       <c r="C48">
-        <v>-0.02802950556087317</v>
+        <v>-0.01040647903605591</v>
       </c>
       <c r="D48">
-        <v>-0.009579374041973175</v>
+        <v>0.0007338583753343454</v>
       </c>
       <c r="E48">
-        <v>-0.005047805055225394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003260300776921256</v>
+      </c>
+      <c r="F48">
+        <v>0.02220828192762361</v>
+      </c>
+      <c r="G48">
+        <v>-0.06548159440545798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006271492166253793</v>
+        <v>-0.07992065041254114</v>
       </c>
       <c r="C50">
-        <v>-0.05485770361881252</v>
+        <v>-0.06501261302125885</v>
       </c>
       <c r="D50">
-        <v>-0.06180320281569502</v>
+        <v>-0.003464397208922594</v>
       </c>
       <c r="E50">
-        <v>-0.03150701935954905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01324690402486707</v>
+      </c>
+      <c r="F50">
+        <v>0.05817096601217389</v>
+      </c>
+      <c r="G50">
+        <v>-0.07886165545780194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007329092741688054</v>
+        <v>-0.0161880308988749</v>
       </c>
       <c r="C51">
-        <v>-0.01681607742602575</v>
+        <v>-0.03119771288565098</v>
       </c>
       <c r="D51">
-        <v>0.004201456772230113</v>
+        <v>0.009476733769157461</v>
       </c>
       <c r="E51">
-        <v>-0.00633058489881869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01404546431642225</v>
+      </c>
+      <c r="F51">
+        <v>-0.02350694680062303</v>
+      </c>
+      <c r="G51">
+        <v>-0.09788506655063269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00762970286169987</v>
+        <v>-0.08637152410749818</v>
       </c>
       <c r="C53">
-        <v>-0.06659808692001871</v>
+        <v>-0.07901201252134861</v>
       </c>
       <c r="D53">
-        <v>-0.1187263717568157</v>
+        <v>-0.004610782178663217</v>
       </c>
       <c r="E53">
-        <v>-0.003957874280252463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03321058581357267</v>
+      </c>
+      <c r="F53">
+        <v>0.05988501281606899</v>
+      </c>
+      <c r="G53">
+        <v>-0.04697444181298694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001382614527892477</v>
+        <v>-0.0334082973967128</v>
       </c>
       <c r="C54">
-        <v>-0.03569374165293025</v>
+        <v>-0.01324445711231211</v>
       </c>
       <c r="D54">
-        <v>0.008339279008714286</v>
+        <v>-0.002561408698922958</v>
       </c>
       <c r="E54">
-        <v>-0.01379529822455562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003889012415367833</v>
+      </c>
+      <c r="F54">
+        <v>0.007207740439326111</v>
+      </c>
+      <c r="G54">
+        <v>-0.0725369193053874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.00388559534264565</v>
+        <v>-0.07512830144854475</v>
       </c>
       <c r="C55">
-        <v>-0.04648548421147006</v>
+        <v>-0.06730157677301023</v>
       </c>
       <c r="D55">
-        <v>-0.1023591043101049</v>
+        <v>-0.005553723393283169</v>
       </c>
       <c r="E55">
-        <v>0.005997211931488658</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02658628605742439</v>
+      </c>
+      <c r="F55">
+        <v>0.05948663971000343</v>
+      </c>
+      <c r="G55">
+        <v>-0.03131553518309911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006721548967610382</v>
+        <v>-0.1444441699612289</v>
       </c>
       <c r="C56">
-        <v>-0.09323216884831312</v>
+        <v>-0.1021964106619723</v>
       </c>
       <c r="D56">
-        <v>-0.1507671589547517</v>
+        <v>-0.01294530523839532</v>
       </c>
       <c r="E56">
-        <v>0.006030183349154258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03803423301121692</v>
+      </c>
+      <c r="F56">
+        <v>0.07796673572064708</v>
+      </c>
+      <c r="G56">
+        <v>-0.00892271652051098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0239399547932425</v>
+        <v>-0.008406374448626679</v>
       </c>
       <c r="C57">
-        <v>-0.01595563629687278</v>
+        <v>-0.008639929196584933</v>
       </c>
       <c r="D57">
-        <v>-0.03826065626425807</v>
+        <v>0.02341761761157297</v>
       </c>
       <c r="E57">
-        <v>0.0003585192952540601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02580112285554406</v>
+      </c>
+      <c r="F57">
+        <v>-0.007807316893426956</v>
+      </c>
+      <c r="G57">
+        <v>-0.03151074926547497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01552171123681679</v>
+        <v>-0.0777385416565386</v>
       </c>
       <c r="C58">
-        <v>-0.09389901610461597</v>
+        <v>-0.03391817987296103</v>
       </c>
       <c r="D58">
-        <v>-0.07021808819876414</v>
+        <v>0.01957891170962285</v>
       </c>
       <c r="E58">
-        <v>0.279818601933554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9394568050277361</v>
+      </c>
+      <c r="F58">
+        <v>0.2328568769764714</v>
+      </c>
+      <c r="G58">
+        <v>0.08597657463660398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03979739422580322</v>
+        <v>-0.1535540833281567</v>
       </c>
       <c r="C59">
-        <v>-0.2518045130476717</v>
+        <v>0.2131883273352173</v>
       </c>
       <c r="D59">
-        <v>0.1638755108206118</v>
+        <v>-0.014268484583267</v>
       </c>
       <c r="E59">
-        <v>-0.01561884300378475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.008353286566045542</v>
+      </c>
+      <c r="F59">
+        <v>-0.0005626543116557792</v>
+      </c>
+      <c r="G59">
+        <v>-0.03694078809407204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04142915120331248</v>
+        <v>-0.2894812971951445</v>
       </c>
       <c r="C60">
-        <v>-0.1641169357929436</v>
+        <v>-0.08910126751020846</v>
       </c>
       <c r="D60">
-        <v>-0.07683043427163881</v>
+        <v>0.01275744859187097</v>
       </c>
       <c r="E60">
-        <v>0.02331128241589014</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.004107423534053416</v>
+      </c>
+      <c r="F60">
+        <v>-0.3527290210609906</v>
+      </c>
+      <c r="G60">
+        <v>0.1259631878721059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003495975651371766</v>
+        <v>-0.0377305759134972</v>
       </c>
       <c r="C61">
-        <v>-0.008373114167340413</v>
+        <v>-0.06511087201538522</v>
       </c>
       <c r="D61">
-        <v>-0.06276753595466968</v>
+        <v>0.005412408237045891</v>
       </c>
       <c r="E61">
-        <v>0.004476209778089287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01140292163214347</v>
+      </c>
+      <c r="F61">
+        <v>-0.01673147355006121</v>
+      </c>
+      <c r="G61">
+        <v>-0.05783526844166093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007761072064250788</v>
+        <v>-0.01541178383827655</v>
       </c>
       <c r="C63">
-        <v>-0.009188722687562545</v>
+        <v>-0.02829015414626737</v>
       </c>
       <c r="D63">
-        <v>-0.00844178133188302</v>
+        <v>0.007916473067860899</v>
       </c>
       <c r="E63">
-        <v>-0.008598379146155376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.003000147151487808</v>
+      </c>
+      <c r="F63">
+        <v>0.01787425430652772</v>
+      </c>
+      <c r="G63">
+        <v>-0.06657574191505024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008803981559657136</v>
+        <v>-0.05086699703472596</v>
       </c>
       <c r="C64">
-        <v>-0.03157728843393657</v>
+        <v>-0.0437942788949111</v>
       </c>
       <c r="D64">
-        <v>-0.0628204995457161</v>
+        <v>0.005702408182309582</v>
       </c>
       <c r="E64">
-        <v>0.02039238489319711</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.003867519437144505</v>
+      </c>
+      <c r="F64">
+        <v>-0.002435495003165544</v>
+      </c>
+      <c r="G64">
+        <v>-0.0497845714286853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01716356595918842</v>
+        <v>-0.08236720285817696</v>
       </c>
       <c r="C65">
-        <v>-0.009956986659761006</v>
+        <v>-0.05643762375876294</v>
       </c>
       <c r="D65">
-        <v>-0.1049558689366702</v>
+        <v>0.01539045146501318</v>
       </c>
       <c r="E65">
-        <v>-0.006262709384432329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02105910574885004</v>
+      </c>
+      <c r="F65">
+        <v>-0.03052570533516103</v>
+      </c>
+      <c r="G65">
+        <v>-0.01990076396117517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005051262832438889</v>
+        <v>-0.05379166527389603</v>
       </c>
       <c r="C66">
-        <v>0.01104929017857718</v>
+        <v>-0.1109528896323508</v>
       </c>
       <c r="D66">
-        <v>-0.1125483148024229</v>
+        <v>0.01200516613645938</v>
       </c>
       <c r="E66">
-        <v>0.01624625529079191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02881173691209902</v>
+      </c>
+      <c r="F66">
+        <v>-0.03703047259473353</v>
+      </c>
+      <c r="G66">
+        <v>-0.06999012871996052</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003013125314650186</v>
+        <v>-0.05536912613448638</v>
       </c>
       <c r="C67">
-        <v>-0.05742143068160002</v>
+        <v>-0.03029733803757331</v>
       </c>
       <c r="D67">
-        <v>-0.03660369352916594</v>
+        <v>-0.005842064037289979</v>
       </c>
       <c r="E67">
-        <v>-0.006256760893807482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002951506626360019</v>
+      </c>
+      <c r="F67">
+        <v>0.01582245994657104</v>
+      </c>
+      <c r="G67">
+        <v>-0.06138352005339949</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05712587410721496</v>
+        <v>-0.1382444606879394</v>
       </c>
       <c r="C68">
-        <v>-0.2294295278565544</v>
+        <v>0.2755888882700263</v>
       </c>
       <c r="D68">
-        <v>0.158617662424078</v>
+        <v>0.003653404933327518</v>
       </c>
       <c r="E68">
-        <v>0.003897272849130339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.006781059764745528</v>
+      </c>
+      <c r="F68">
+        <v>0.03266899849237138</v>
+      </c>
+      <c r="G68">
+        <v>-0.02522741825150795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0007527952435918093</v>
+        <v>-0.08251987864440012</v>
       </c>
       <c r="C69">
-        <v>-0.04251554484993383</v>
+        <v>-0.06792997657630549</v>
       </c>
       <c r="D69">
-        <v>-0.06181016188815527</v>
+        <v>-0.00920769619104353</v>
       </c>
       <c r="E69">
-        <v>-0.004021963886211685</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02693440888092515</v>
+      </c>
+      <c r="F69">
+        <v>0.03788057700407779</v>
+      </c>
+      <c r="G69">
+        <v>-0.06411463538101073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04245709514249738</v>
+        <v>-0.1283637073009174</v>
       </c>
       <c r="C71">
-        <v>-0.2035923556456814</v>
+        <v>0.2359422290991186</v>
       </c>
       <c r="D71">
-        <v>0.1413105398025337</v>
+        <v>-0.005083970862294865</v>
       </c>
       <c r="E71">
-        <v>-0.0059984671331624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02478870557715118</v>
+      </c>
+      <c r="F71">
+        <v>0.01309969080214231</v>
+      </c>
+      <c r="G71">
+        <v>-0.04451592156081108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0002713743241725132</v>
+        <v>-0.08772042941586462</v>
       </c>
       <c r="C72">
-        <v>-0.04877469366780148</v>
+        <v>-0.07065610900433368</v>
       </c>
       <c r="D72">
-        <v>-0.1306344115032054</v>
+        <v>-0.008009934191080587</v>
       </c>
       <c r="E72">
-        <v>0.009229839633861696</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003262948761738405</v>
+      </c>
+      <c r="F72">
+        <v>-0.04287739689977937</v>
+      </c>
+      <c r="G72">
+        <v>-0.04894805876145273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05464149369768246</v>
+        <v>-0.3864994288806083</v>
       </c>
       <c r="C73">
-        <v>-0.1900920411811816</v>
+        <v>-0.09935701886595515</v>
       </c>
       <c r="D73">
-        <v>-0.1658541243224909</v>
+        <v>0.02171520938115258</v>
       </c>
       <c r="E73">
-        <v>0.07315799470297815</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06462572847924404</v>
+      </c>
+      <c r="F73">
+        <v>-0.5684114141974477</v>
+      </c>
+      <c r="G73">
+        <v>0.2028025306059967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003592076469106856</v>
+        <v>-0.114304427950851</v>
       </c>
       <c r="C74">
-        <v>-0.08201325466556213</v>
+        <v>-0.1106054610461821</v>
       </c>
       <c r="D74">
-        <v>-0.1598487946543991</v>
+        <v>-0.01021732419532186</v>
       </c>
       <c r="E74">
-        <v>0.01931726404626415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01625909479260294</v>
+      </c>
+      <c r="F74">
+        <v>0.07421298876435496</v>
+      </c>
+      <c r="G74">
+        <v>-0.05028563549920224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01286277099668906</v>
+        <v>-0.2509344639655156</v>
       </c>
       <c r="C75">
-        <v>-0.1900487616519837</v>
+        <v>-0.1468846986044306</v>
       </c>
       <c r="D75">
-        <v>-0.2874893163173733</v>
+        <v>-0.02987158624845541</v>
       </c>
       <c r="E75">
-        <v>0.03877809440031293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05716315840257887</v>
+      </c>
+      <c r="F75">
+        <v>0.1808338092692392</v>
+      </c>
+      <c r="G75">
+        <v>0.06316507624944361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0008956141791113722</v>
+        <v>-0.1278626274050528</v>
       </c>
       <c r="C76">
-        <v>-0.1208946274389905</v>
+        <v>-0.1133595537435446</v>
       </c>
       <c r="D76">
-        <v>-0.2352989561958327</v>
+        <v>-0.02044012724657129</v>
       </c>
       <c r="E76">
-        <v>-0.009646107956099183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04748288574062683</v>
+      </c>
+      <c r="F76">
+        <v>0.1177762841654552</v>
+      </c>
+      <c r="G76">
+        <v>-0.0216509065751375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01292692424516767</v>
+        <v>-0.06813058461796526</v>
       </c>
       <c r="C77">
-        <v>-0.02116538693998718</v>
+        <v>-0.05650504697711589</v>
       </c>
       <c r="D77">
-        <v>-0.04430757964572339</v>
+        <v>0.01216714364500105</v>
       </c>
       <c r="E77">
-        <v>0.01345434773907105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05164859007423556</v>
+      </c>
+      <c r="F77">
+        <v>-0.0129888813759428</v>
+      </c>
+      <c r="G77">
+        <v>-0.06751270046766611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004964095154742112</v>
+        <v>-0.04679084896550705</v>
       </c>
       <c r="C78">
-        <v>-0.01689546105894633</v>
+        <v>-0.04844435956272746</v>
       </c>
       <c r="D78">
-        <v>-0.06218682856102771</v>
+        <v>0.005006502565109456</v>
       </c>
       <c r="E78">
-        <v>0.009348878794035216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01970881275036605</v>
+      </c>
+      <c r="F78">
+        <v>-0.03619674906501918</v>
+      </c>
+      <c r="G78">
+        <v>-0.06436290364965989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01608136893606124</v>
+        <v>-0.05688599342671034</v>
       </c>
       <c r="C80">
-        <v>-0.09197287914686378</v>
+        <v>-0.06506471248486169</v>
       </c>
       <c r="D80">
-        <v>-0.2270842512730057</v>
+        <v>0.01097639449377365</v>
       </c>
       <c r="E80">
-        <v>-0.8379157031183428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02271656533153496</v>
+      </c>
+      <c r="F80">
+        <v>-0.008810622939218238</v>
+      </c>
+      <c r="G80">
+        <v>-0.6959296785140879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008474941669536355</v>
+        <v>-0.1433919528220544</v>
       </c>
       <c r="C81">
-        <v>-0.1154139267395902</v>
+        <v>-0.09050416005162346</v>
       </c>
       <c r="D81">
-        <v>-0.1716010147706721</v>
+        <v>-0.01530685961070741</v>
       </c>
       <c r="E81">
-        <v>0.004430080962421768</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03374719294037357</v>
+      </c>
+      <c r="F81">
+        <v>0.1282089767074315</v>
+      </c>
+      <c r="G81">
+        <v>-0.01329617949605273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1203791762451986</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05852135647591361</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.006387105613837463</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.082852300298939</v>
+      </c>
+      <c r="F82">
+        <v>0.02105558167755896</v>
+      </c>
+      <c r="G82">
+        <v>-0.03511917603422157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007411757096923026</v>
+        <v>-0.03377265537097287</v>
       </c>
       <c r="C83">
-        <v>-0.02182857987692929</v>
+        <v>-0.02241286502178184</v>
       </c>
       <c r="D83">
-        <v>-0.01911079138656284</v>
+        <v>0.005805774684808677</v>
       </c>
       <c r="E83">
-        <v>-0.002783656992205002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03038328097166489</v>
+      </c>
+      <c r="F83">
+        <v>-0.03548107923981252</v>
+      </c>
+      <c r="G83">
+        <v>-0.0521496521889655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01868129389166295</v>
+        <v>-0.2184800173731272</v>
       </c>
       <c r="C85">
-        <v>-0.1480144741871146</v>
+        <v>-0.1422361732907112</v>
       </c>
       <c r="D85">
-        <v>-0.2651543652135671</v>
+        <v>-0.01748988849732756</v>
       </c>
       <c r="E85">
-        <v>0.03523450622671083</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09690724710356417</v>
+      </c>
+      <c r="F85">
+        <v>0.1425725700099736</v>
+      </c>
+      <c r="G85">
+        <v>0.1054605954687126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008563221729570403</v>
+        <v>-0.01777865525780343</v>
       </c>
       <c r="C86">
-        <v>-0.03084837701844661</v>
+        <v>-0.02232093862845278</v>
       </c>
       <c r="D86">
-        <v>-0.004306926058450901</v>
+        <v>0.01093783066904624</v>
       </c>
       <c r="E86">
-        <v>0.02861984552940587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04156724610891222</v>
+      </c>
+      <c r="F86">
+        <v>-0.04197919694076786</v>
+      </c>
+      <c r="G86">
+        <v>-0.1316077286866167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007915660342101989</v>
+        <v>-0.02413860039319307</v>
       </c>
       <c r="C87">
-        <v>-0.01312187072702081</v>
+        <v>-0.02538454624013357</v>
       </c>
       <c r="D87">
-        <v>-0.03873912856248428</v>
+        <v>0.01095694513459035</v>
       </c>
       <c r="E87">
-        <v>0.008264888029455315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08467668365091725</v>
+      </c>
+      <c r="F87">
+        <v>-0.02118040432647487</v>
+      </c>
+      <c r="G87">
+        <v>-0.09304342628306178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02828007547404139</v>
+        <v>-0.09195921438451078</v>
       </c>
       <c r="C88">
-        <v>-0.03557560410932151</v>
+        <v>-0.0646104218746664</v>
       </c>
       <c r="D88">
-        <v>-0.03139858032261372</v>
+        <v>0.0229561521709135</v>
       </c>
       <c r="E88">
-        <v>-0.002853015674321947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01190204231954868</v>
+      </c>
+      <c r="F88">
+        <v>0.02193638678833409</v>
+      </c>
+      <c r="G88">
+        <v>-0.06270126869868825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07914620413205978</v>
+        <v>-0.213508708339177</v>
       </c>
       <c r="C89">
-        <v>-0.3644284875566758</v>
+        <v>0.376881790654996</v>
       </c>
       <c r="D89">
-        <v>0.2475739538250077</v>
+        <v>-0.003832579842041503</v>
       </c>
       <c r="E89">
-        <v>-0.01412781021869639</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02218998234877486</v>
+      </c>
+      <c r="F89">
+        <v>0.02492503314898352</v>
+      </c>
+      <c r="G89">
+        <v>-0.04942442692882303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06064550341733792</v>
+        <v>-0.1916357629604207</v>
       </c>
       <c r="C90">
-        <v>-0.2826007698958694</v>
+        <v>0.3341851100039867</v>
       </c>
       <c r="D90">
-        <v>0.2185840630662408</v>
+        <v>-0.008263666043218945</v>
       </c>
       <c r="E90">
-        <v>0.00433455851500872</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01992778458154177</v>
+      </c>
+      <c r="F90">
+        <v>0.05187593512930792</v>
+      </c>
+      <c r="G90">
+        <v>-0.01745756682994964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.008486897660228931</v>
+        <v>-0.1968610103053897</v>
       </c>
       <c r="C91">
-        <v>-0.1634609782633434</v>
+        <v>-0.1369565118329353</v>
       </c>
       <c r="D91">
-        <v>-0.2428348358288142</v>
+        <v>-0.02343687039962122</v>
       </c>
       <c r="E91">
-        <v>0.009617864839636187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07086186754829579</v>
+      </c>
+      <c r="F91">
+        <v>0.1563839457180221</v>
+      </c>
+      <c r="G91">
+        <v>-0.002073812683685336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0276485495685282</v>
+        <v>-0.195154062320831</v>
       </c>
       <c r="C92">
-        <v>-0.3076603574903473</v>
+        <v>0.2625392954595262</v>
       </c>
       <c r="D92">
-        <v>0.09579222576070541</v>
+        <v>-0.04389288885956135</v>
       </c>
       <c r="E92">
-        <v>0.002151340873143989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01191458087002416</v>
+      </c>
+      <c r="F92">
+        <v>0.07084862707215364</v>
+      </c>
+      <c r="G92">
+        <v>-0.1098590279990157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05900706338858059</v>
+        <v>-0.2175770131465511</v>
       </c>
       <c r="C93">
-        <v>-0.3122834171810663</v>
+        <v>0.3296705880294218</v>
       </c>
       <c r="D93">
-        <v>0.2066032738083109</v>
+        <v>-0.01471723022043401</v>
       </c>
       <c r="E93">
-        <v>0.03014051909730743</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005384317637004889</v>
+      </c>
+      <c r="F93">
+        <v>0.03592244221742974</v>
+      </c>
+      <c r="G93">
+        <v>-0.01329280471080005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.0327997719822312</v>
+        <v>-0.3177528794224607</v>
       </c>
       <c r="C94">
-        <v>-0.1941905954964818</v>
+        <v>-0.1631897617841762</v>
       </c>
       <c r="D94">
-        <v>-0.2435873784392748</v>
+        <v>-0.01672182572892277</v>
       </c>
       <c r="E94">
-        <v>0.03032988312978412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1607601434474802</v>
+      </c>
+      <c r="F94">
+        <v>0.4765131094672114</v>
+      </c>
+      <c r="G94">
+        <v>0.2588394543082874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004051242521002496</v>
+        <v>-0.09878057687282622</v>
       </c>
       <c r="C95">
-        <v>-0.04160254294245083</v>
+        <v>-0.08003116216766738</v>
       </c>
       <c r="D95">
-        <v>-0.08386827413737728</v>
+        <v>-0.008301823292133052</v>
       </c>
       <c r="E95">
-        <v>0.1336121122529588</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06461177431532449</v>
+      </c>
+      <c r="F95">
+        <v>-0.1897707937879419</v>
+      </c>
+      <c r="G95">
+        <v>0.06660524976440883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01579546082713424</v>
+        <v>-0.1999556368167786</v>
       </c>
       <c r="C98">
-        <v>-0.1697632192053952</v>
+        <v>-0.03879787290589463</v>
       </c>
       <c r="D98">
-        <v>-0.1122579037062369</v>
+        <v>-0.01259770969271458</v>
       </c>
       <c r="E98">
-        <v>0.05697014306783584</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06449020217379255</v>
+      </c>
+      <c r="F98">
+        <v>-0.2454499176879994</v>
+      </c>
+      <c r="G98">
+        <v>0.02569101939923233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008045625734913509</v>
+        <v>-0.01250947865436347</v>
       </c>
       <c r="C101">
-        <v>-0.01796664118461994</v>
+        <v>-0.0204355932949449</v>
       </c>
       <c r="D101">
-        <v>-0.009708916920949096</v>
+        <v>0.0072563527001607</v>
       </c>
       <c r="E101">
-        <v>-0.008100041037840063</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.006180151066607232</v>
+      </c>
+      <c r="F101">
+        <v>0.01760325459605593</v>
+      </c>
+      <c r="G101">
+        <v>-0.06731928092982258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01877212823197383</v>
+        <v>-0.1204973916223828</v>
       </c>
       <c r="C102">
-        <v>-0.08460656392647696</v>
+        <v>-0.08193344631647911</v>
       </c>
       <c r="D102">
-        <v>-0.1264302351063158</v>
+        <v>0.001357488709821564</v>
       </c>
       <c r="E102">
-        <v>0.01045525486508182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03247008105450668</v>
+      </c>
+      <c r="F102">
+        <v>0.04180594917055666</v>
+      </c>
+      <c r="G102">
+        <v>0.005231641330942192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002030190409928432</v>
+        <v>-0.003291123082588589</v>
       </c>
       <c r="C103">
-        <v>-0.01213568502008773</v>
+        <v>-0.0024601926805114</v>
       </c>
       <c r="D103">
-        <v>-0.02018726786527195</v>
+        <v>0.0001053750815908445</v>
       </c>
       <c r="E103">
-        <v>-0.0146972005725695</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001766407310718561</v>
+      </c>
+      <c r="F103">
+        <v>0.005540622595307187</v>
+      </c>
+      <c r="G103">
+        <v>-0.01335195581994572</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9760263708658468</v>
+        <v>-0.02328130994102137</v>
       </c>
       <c r="C104">
-        <v>0.1712670378207883</v>
+        <v>0.0359978310702282</v>
       </c>
       <c r="D104">
-        <v>0.004196062417977289</v>
+        <v>0.9874743698463778</v>
       </c>
       <c r="E104">
-        <v>-0.03758769776523638</v>
+        <v>-0.04419566786833703</v>
+      </c>
+      <c r="F104">
+        <v>0.04142032698917306</v>
+      </c>
+      <c r="G104">
+        <v>0.01895712808159975</v>
       </c>
     </row>
   </sheetData>
